--- a/Aplikasi Skripsi/output_Ganjar Pranowo.xlsx
+++ b/Aplikasi Skripsi/output_Ganjar Pranowo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alfonso's Personal File\Kuliah\Skripsi\Aplikasi Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E1A300-BA5A-4C1B-98DE-A1BE213BAB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1103C7D8-27A8-421A-964F-7344ABF8065C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="1" r:id="rId1"/>
@@ -9838,8 +9838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1553"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1519" workbookViewId="0">
-      <selection activeCell="C1551" sqref="C1551"/>
+    <sheetView tabSelected="1" topLeftCell="A1545" workbookViewId="0">
+      <selection sqref="A1:D1553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
